--- a/results/mp/deberta/corona/confidence/126/stop-words-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-masking-0.5/avg_0.004_scores.xlsx
@@ -133,16 +133,16 @@
     <t>well</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>relief</t>
   </si>
   <si>
     <t>care</t>
@@ -1469,25 +1469,25 @@
         <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6812227074235808</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L21">
         <v>156</v>
       </c>
       <c r="M21">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="N21">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1573,25 +1573,25 @@
         <v>39</v>
       </c>
       <c r="K25">
-        <v>0.6024464831804281</v>
+        <v>0.5970149253731343</v>
       </c>
       <c r="L25">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="M25">
-        <v>210</v>
+        <v>43</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>130</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1599,25 +1599,25 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5970149253731343</v>
+        <v>0.59375</v>
       </c>
       <c r="L26">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N26">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O26">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1625,25 +1625,25 @@
         <v>41</v>
       </c>
       <c r="K27">
-        <v>0.59375</v>
+        <v>0.58</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N27">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1651,13 +1651,13 @@
         <v>42</v>
       </c>
       <c r="K28">
-        <v>0.58</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>21</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="10:17">
